--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W5_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W5_H50_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5524691358024691</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4285714285714285</v>
-      </c>
+        <v>0.552870090634441</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9781420765027322</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02027027027027027</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5498489425981873</v>
+        <v>0.552870090634441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7061143984220908</v>
+        <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5045317220543807</v>
+        <v>0.4833836858006043</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09952943670505654</v>
+        <v>0.07581466462933399</v>
       </c>
       <c r="J2" t="n">
-        <v>1339.411143233767</v>
+        <v>991.3059236080967</v>
       </c>
       <c r="K2" t="n">
-        <v>2597633.648576861</v>
+        <v>1330284.195362681</v>
       </c>
       <c r="L2" t="n">
-        <v>1611.717608198428</v>
+        <v>1153.379467201788</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5143895048143252</v>
+        <v>0.7513121347185867</v>
       </c>
     </row>
   </sheetData>
